--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michzimm/projects/intersight_v1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3BCDC-B039-1444-A84D-9782536196D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE115F-C3B8-0A42-B779-BFF71510E816}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-4460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="181">
   <si>
     <t>HX Cluster Profile Name</t>
   </si>
@@ -568,13 +568,16 @@
   </si>
   <si>
     <t>1G</t>
+  </si>
+  <si>
+    <t>MAC Address Prefix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1233,7 +1236,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1309,6 +1312,9 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1341,6 +1347,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1698,13 +1707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -1712,111 +1721,113 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="6" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="17" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.83203125" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" customWidth="1"/>
-    <col min="20" max="20" width="19.1640625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="23.5" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" customWidth="1"/>
-    <col min="23" max="23" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5" customWidth="1"/>
-    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21" style="13" customWidth="1"/>
-    <col min="27" max="27" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17" customWidth="1"/>
-    <col min="40" max="40" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.33203125" customWidth="1"/>
-    <col min="42" max="42" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="6" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="17" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.83203125" customWidth="1"/>
+    <col min="20" max="20" width="19.1640625" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="23.5" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+    <col min="24" max="24" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" style="13" customWidth="1"/>
+    <col min="28" max="28" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
+    <col min="41" max="41" width="19.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.33203125" customWidth="1"/>
+    <col min="43" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="31" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="35"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="N1" s="37"/>
       <c r="O1" s="37"/>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
       <c r="T1" s="29"/>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="28"/>
       <c r="W1" s="29"/>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="28"/>
       <c r="Z1" s="29"/>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
       <c r="AJ1" s="32"/>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
+      <c r="AM1" s="32"/>
       <c r="AN1" s="32"/>
-      <c r="AO1" s="27" t="s">
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
+      <c r="AQ1" s="29"/>
       <c r="AR1" s="29"/>
+      <c r="AS1" s="30"/>
     </row>
-    <row r="2" spans="1:44" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" s="4" customFormat="1" ht="33" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1832,125 +1843,128 @@
       <c r="E2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AK2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AN2" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AO2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AS2" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -1966,92 +1980,92 @@
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="17"/>
+      <c r="V3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="X3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AA3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="1" t="s">
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <v>101</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AO3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
     </row>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -2067,63 +2081,63 @@
       <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="1" t="s">
+      <c r="M4" s="2"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="17"/>
+      <c r="V4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="17"/>
+      <c r="Y4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="1" t="s">
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>102</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN4" s="17" t="s">
+      <c r="AO4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
     </row>
-    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -2139,63 +2153,63 @@
       <c r="F5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="1" t="s">
+      <c r="M5" s="2"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="17"/>
+      <c r="V5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="17"/>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="17"/>
+      <c r="Y5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="1" t="s">
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>103</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN5" s="17" t="s">
+      <c r="AO5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
     </row>
-    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -2211,63 +2225,63 @@
       <c r="F6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="17"/>
+      <c r="V6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="17"/>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="17"/>
+      <c r="Y6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="1" t="s">
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>104</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN6" s="17" t="s">
+      <c r="AO6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
     </row>
-    <row r="7" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -2283,63 +2297,63 @@
       <c r="F7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="L7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="1" t="s">
+      <c r="M7" s="2"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="17"/>
+      <c r="V7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="17"/>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="17"/>
+      <c r="Y7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="1" t="s">
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM7" s="1">
         <v>105</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN7" s="17" t="s">
+      <c r="AO7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
     </row>
-    <row r="8" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
@@ -2355,79 +2369,79 @@
       <c r="F8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="P8" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="R8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="S8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="T8" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="17"/>
+      <c r="V8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W8" s="17"/>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="17"/>
+      <c r="Y8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="1" t="s">
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>201</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN8" s="17" t="s">
+      <c r="AO8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
     </row>
-    <row r="9" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -2443,63 +2457,63 @@
       <c r="F9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="23" t="s">
+      <c r="M9" s="2"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="17"/>
+      <c r="V9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="17"/>
+      <c r="Y9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="1" t="s">
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>202</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AN9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN9" s="17" t="s">
+      <c r="AO9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2516,56 +2530,57 @@
         <v>91</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="Q10" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AL10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1">
         <v>203</v>
       </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AN10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN10" s="17" t="s">
+      <c r="AO10" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45">
       <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
@@ -2581,56 +2596,57 @@
       <c r="F11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="Q11" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AK11" s="1" t="s">
+      <c r="AL11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <v>204</v>
       </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AN11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN11" s="17" t="s">
+      <c r="AO11" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45">
       <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
@@ -2646,74 +2662,75 @@
       <c r="F12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="L12" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="P12" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="Q12" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AK12" s="1" t="s">
+      <c r="AL12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1">
         <v>301</v>
       </c>
-      <c r="AM12" s="1" t="s">
+      <c r="AN12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN12" s="17" t="s">
+      <c r="AO12" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -2729,56 +2746,57 @@
       <c r="F13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="J13" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="L13" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="Q13" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AK13" s="1" t="s">
+      <c r="AL13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>302</v>
       </c>
-      <c r="AM13" s="1" t="s">
+      <c r="AN13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN13" s="17" t="s">
+      <c r="AO13" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45">
       <c r="A14" s="1" t="s">
         <v>112</v>
       </c>
@@ -2794,56 +2812,57 @@
       <c r="F14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="L14" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="Q14" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="AG14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AK14" s="1" t="s">
+      <c r="AL14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>303</v>
       </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AN14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN14" s="17" t="s">
+      <c r="AO14" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45">
       <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
@@ -2859,75 +2878,76 @@
       <c r="F15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="L15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="M15" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="P15" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="Q15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AK15" s="1" t="s">
+      <c r="AL15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>401</v>
       </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AN15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN15" s="17" t="s">
+      <c r="AO15" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -2943,56 +2963,57 @@
       <c r="F16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="J16" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="L16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="Q16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AG16" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AK16" s="1" t="s">
+      <c r="AL16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1">
         <v>402</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AN16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN16" s="17" t="s">
+      <c r="AO16" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -3008,56 +3029,57 @@
       <c r="F17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="J17" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="L17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="Q17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AK17" s="1" t="s">
+      <c r="AL17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>403</v>
       </c>
-      <c r="AM17" s="1" t="s">
+      <c r="AN17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN17" s="17" t="s">
+      <c r="AO17" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
@@ -3073,69 +3095,70 @@
       <c r="F18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="J18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="L18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="Q18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AK18" s="1" t="s">
+      <c r="AL18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1">
         <v>404</v>
       </c>
-      <c r="AM18" s="1" t="s">
+      <c r="AN18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AN18" s="17" t="s">
+      <c r="AO18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Z3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AA3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
